--- a/data/trans_dic/P22_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P22_R2-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.009240702809307945</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.01744964283435045</v>
+        <v>0.01744964283435044</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02683118503916808</v>
+        <v>0.02479490647532067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003776260742105071</v>
+        <v>0.003883101236631021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00303953178873304</v>
+        <v>0.003033923041967453</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008244888651918733</v>
+        <v>0.009317080841920799</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01409417486977126</v>
+        <v>0.01377920025846353</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01123725926265845</v>
+        <v>0.01108944978648673</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.004436387158166679</v>
+        <v>0.004291550880689678</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01187614344551315</v>
+        <v>0.01119527501166495</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02122395223534289</v>
+        <v>0.02131690814526315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008993658042538674</v>
+        <v>0.00930787020360679</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005203800591553659</v>
+        <v>0.005488911042196224</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01225318743846322</v>
+        <v>0.01220433888276803</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05040414353845468</v>
+        <v>0.0505813686711787</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01524275165167664</v>
+        <v>0.01585613687670887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01761035136838712</v>
+        <v>0.0175737770681405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02903647561260502</v>
+        <v>0.02895733425851521</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02908333125661981</v>
+        <v>0.02958518469519157</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02718881896027793</v>
+        <v>0.02661920163209648</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02143684631366098</v>
+        <v>0.01889911125818193</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0263879957982722</v>
+        <v>0.02663813030004204</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03487041180127735</v>
+        <v>0.03541027927185428</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01933505922661553</v>
+        <v>0.01961484162334504</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01534906712369608</v>
+        <v>0.01555401087467267</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02386964379333705</v>
+        <v>0.02409806230095252</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02950288918979829</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08011868949810465</v>
+        <v>0.08011868949810466</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04912693774830363</v>
+        <v>0.05027053991677431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04195492471918144</v>
+        <v>0.04110873010948765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02124315777768256</v>
+        <v>0.02088401317136443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06555472685730947</v>
+        <v>0.06540780226658162</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04290785844293574</v>
+        <v>0.04146710335546989</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0334143607948436</v>
+        <v>0.03317569109430023</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02381143836942214</v>
+        <v>0.02381106756310427</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07317668644006002</v>
+        <v>0.07356164103436955</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05013819923520089</v>
+        <v>0.04830843346280374</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03977731308557735</v>
+        <v>0.03953033808592125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02459149479398775</v>
+        <v>0.02435534252701216</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07215355401235653</v>
+        <v>0.07263993362031791</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07411619042083124</v>
+        <v>0.07300907805405196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06208671476849871</v>
+        <v>0.06231127680862606</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0356121221912782</v>
+        <v>0.03556177922359027</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09063054141881358</v>
+        <v>0.0913809120052934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06642876317605276</v>
+        <v>0.06469755446349004</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05243747322123249</v>
+        <v>0.05296980420200367</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03911146943325917</v>
+        <v>0.03990169067827736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09491664220823565</v>
+        <v>0.09550174075484325</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06600191738541689</v>
+        <v>0.06544511696470828</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05461864263740625</v>
+        <v>0.05357766955867054</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03559463401149923</v>
+        <v>0.03508668659319204</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08932662523248583</v>
+        <v>0.08960975348232388</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1091435490778599</v>
+        <v>0.1102782469397971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0759180117820384</v>
+        <v>0.07689048553923493</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0803345276519702</v>
+        <v>0.07908233189879224</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1978409835271198</v>
+        <v>0.1937609733900517</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1052308027575408</v>
+        <v>0.1038695096693708</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08582759156403126</v>
+        <v>0.08368876814747178</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1164324775846819</v>
+        <v>0.1159321397405968</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2333587334969678</v>
+        <v>0.2350970841875091</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1152437228664403</v>
+        <v>0.1159759949512339</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08895657282761259</v>
+        <v>0.08716787192001306</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1052026760514863</v>
+        <v>0.1041295025299337</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2256770743382656</v>
+        <v>0.2257339445620316</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1684243143249568</v>
+        <v>0.1666939172200433</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1365065250890954</v>
+        <v>0.1394650767904938</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1314013235155205</v>
+        <v>0.1328408546065707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2671640763514362</v>
+        <v>0.26221862077466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1694576429204447</v>
+        <v>0.170497568939517</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1486981839899576</v>
+        <v>0.147201612639691</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1751281461006778</v>
+        <v>0.1766267933289334</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2923778463994879</v>
+        <v>0.2925693141566284</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1593852983270131</v>
+        <v>0.1587158515831347</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1324244523766628</v>
+        <v>0.1341189108841311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1478510068100944</v>
+        <v>0.1452437639540043</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2702365457774031</v>
+        <v>0.2693440379114392</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03596501517327158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09787240372023426</v>
+        <v>0.09787240372023427</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05198509762536468</v>
@@ -1105,7 +1105,7 @@
         <v>0.03941157137387755</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1011622063832493</v>
+        <v>0.1011622063832492</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0572652960795984</v>
+        <v>0.05792459388754227</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03877127311407854</v>
+        <v>0.03841684890559274</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02988716842447693</v>
+        <v>0.03004446116251349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08670052620068865</v>
+        <v>0.08757421843914087</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0445786863457087</v>
+        <v>0.0447481572945548</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03563679315112541</v>
+        <v>0.03568669100425517</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03582559436117172</v>
+        <v>0.03573269097733488</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0962046091904408</v>
+        <v>0.09570203984127823</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05313381621879094</v>
+        <v>0.05351136389692574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03814678913443252</v>
+        <v>0.03915315617955899</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03460380730235233</v>
+        <v>0.03446341148946042</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09436206938920103</v>
+        <v>0.09459518734341849</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07456558338251881</v>
+        <v>0.07476471847284798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05410257320977455</v>
+        <v>0.05377165837757771</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04293206009727149</v>
+        <v>0.04299193170089458</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1088109680939214</v>
+        <v>0.1102324432980156</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06109015424158237</v>
+        <v>0.06093849432239743</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04925913412296375</v>
+        <v>0.04993396913982583</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0494722557169064</v>
+        <v>0.05000363965923928</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1136022829724576</v>
+        <v>0.1145946751503252</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.06497812125735823</v>
+        <v>0.06526888824248757</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0490156783969536</v>
+        <v>0.05007841443235323</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.04480797470639878</v>
+        <v>0.04446404082114885</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1085005744914264</v>
+        <v>0.1084106029366144</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>27606</v>
+        <v>25511</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3681</v>
+        <v>3785</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2289</v>
+        <v>2285</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4770</v>
+        <v>5390</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>18523</v>
+        <v>18110</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15033</v>
+        <v>14835</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4395</v>
+        <v>4252</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>9754</v>
+        <v>9195</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>49731</v>
+        <v>49949</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>20797</v>
+        <v>21524</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9075</v>
+        <v>9572</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>17153</v>
+        <v>17084</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51860</v>
+        <v>52042</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14856</v>
+        <v>15454</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13264</v>
+        <v>13236</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16798</v>
+        <v>16753</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>38223</v>
+        <v>38883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36373</v>
+        <v>35611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21238</v>
+        <v>18724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21673</v>
+        <v>21878</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>81706</v>
+        <v>82971</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>44711</v>
+        <v>45358</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26767</v>
+        <v>27124</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33414</v>
+        <v>33734</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>83017</v>
+        <v>84950</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>82357</v>
+        <v>80695</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>44050</v>
+        <v>43305</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>146224</v>
+        <v>145896</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>68073</v>
+        <v>65787</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58736</v>
+        <v>58316</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>47300</v>
+        <v>47299</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>158817</v>
+        <v>159653</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>164270</v>
+        <v>158275</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>148003</v>
+        <v>147084</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>99843</v>
+        <v>98884</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>317540</v>
+        <v>319681</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>125245</v>
+        <v>123374</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>121875</v>
+        <v>122316</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73845</v>
+        <v>73741</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>202157</v>
+        <v>203831</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>105389</v>
+        <v>102642</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>92175</v>
+        <v>93110</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>77693</v>
+        <v>79262</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>206000</v>
+        <v>207270</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>216245</v>
+        <v>214420</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>203224</v>
+        <v>199351</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>144516</v>
+        <v>142454</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>393117</v>
+        <v>394363</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>60183</v>
+        <v>60808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36530</v>
+        <v>36998</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>43856</v>
+        <v>43173</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>140781</v>
+        <v>137878</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>50133</v>
+        <v>49485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39363</v>
+        <v>38382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>63938</v>
+        <v>63663</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>171490</v>
+        <v>172767</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>118450</v>
+        <v>119202</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>83603</v>
+        <v>81921</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>115204</v>
+        <v>114028</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>326434</v>
+        <v>326516</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>92871</v>
+        <v>91916</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>65684</v>
+        <v>67108</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71735</v>
+        <v>72521</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>190110</v>
+        <v>186591</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>80732</v>
+        <v>81227</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>68198</v>
+        <v>67511</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96170</v>
+        <v>96993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>214862</v>
+        <v>215002</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>163819</v>
+        <v>163131</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>124454</v>
+        <v>126047</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>161906</v>
+        <v>159051</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>390887</v>
+        <v>389596</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>187265</v>
+        <v>189421</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>132551</v>
+        <v>131340</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>100801</v>
+        <v>101331</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>305245</v>
+        <v>308321</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>150550</v>
+        <v>151122</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>126661</v>
+        <v>126839</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>126332</v>
+        <v>126004</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>358508</v>
+        <v>356635</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>353197</v>
+        <v>355706</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>265999</v>
+        <v>273016</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>238732</v>
+        <v>237763</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>683861</v>
+        <v>685550</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>243840</v>
+        <v>244491</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>184966</v>
+        <v>183835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>144797</v>
+        <v>144999</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>383089</v>
+        <v>388093</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>206312</v>
+        <v>205800</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>175078</v>
+        <v>177477</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>174454</v>
+        <v>176328</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>423341</v>
+        <v>427039</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>431929</v>
+        <v>433862</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>341788</v>
+        <v>349198</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>309130</v>
+        <v>306757</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>786325</v>
+        <v>785673</v>
       </c>
     </row>
     <row r="20">
